--- a/Algorithm_tester/data_autosave/synth_general.xlsx
+++ b/Algorithm_tester/data_autosave/synth_general.xlsx
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>569.2377090454102</v>
+        <v>255.6037902832031</v>
       </c>
       <c r="H2" t="n">
         <v>-89.19804935424524</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>595.4955220222473</v>
+        <v>265.0887727737427</v>
       </c>
       <c r="H3" t="n">
         <v>-37.50292576989972</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>612.398087978363</v>
+        <v>273.7685441970825</v>
       </c>
       <c r="H4" t="n">
         <v>-23.78953960525217</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>643.3030366897583</v>
+        <v>290.22216796875</v>
       </c>
       <c r="H5" t="n">
         <v>-16.71628653125208</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>709.9892497062683</v>
+        <v>325.1301646232605</v>
       </c>
       <c r="H6" t="n">
         <v>-11.05023521660459</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>819.6656107902527</v>
+        <v>376.9991636276245</v>
       </c>
       <c r="H7" t="n">
         <v>-6.422405966346402</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1721.882104873657</v>
+        <v>1034.914493560791</v>
       </c>
       <c r="H8" t="n">
         <v>-2.13557309428383</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>234.1880440711975</v>
+        <v>103.7223219871521</v>
       </c>
       <c r="H10" t="n">
         <v>-37.50292576989972</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>258.6206197738647</v>
+        <v>113.7343645095825</v>
       </c>
       <c r="H11" t="n">
         <v>-23.78953960525217</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>284.0391397476196</v>
+        <v>126.8786191940308</v>
       </c>
       <c r="H12" t="n">
         <v>-16.71628653125208</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>302.224338054657</v>
+        <v>137.6232504844666</v>
       </c>
       <c r="H13" t="n">
         <v>-11.05023521660459</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>342.8763866424561</v>
+        <v>166.0647511482239</v>
       </c>
       <c r="H14" t="n">
         <v>-6.422405966346402</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>962.0876312255859</v>
+        <v>377.6106834411621</v>
       </c>
       <c r="H15" t="n">
         <v>-2.13557309428383</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.495973587036133</v>
+        <v>8.299827575683594</v>
       </c>
       <c r="H16" t="n">
         <v>-89.19804935424524</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.99342107772827</v>
+        <v>11.31956577301025</v>
       </c>
       <c r="H17" t="n">
         <v>-37.50292576989972</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12.62146234512329</v>
+        <v>13.14860582351685</v>
       </c>
       <c r="H18" t="n">
         <v>-23.78953960525217</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.70208168029785</v>
+        <v>15.16377925872803</v>
       </c>
       <c r="H19" t="n">
         <v>-16.71628653125208</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17.72099733352661</v>
+        <v>19.04129981994629</v>
       </c>
       <c r="H20" t="n">
         <v>-11.05023521660459</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>30.01459836959835</v>
+        <v>58.98659229278564</v>
       </c>
       <c r="H21" t="n">
         <v>-6.422405966346402</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.675968170166</v>
+        <v>212.7366065979004</v>
       </c>
       <c r="H22" t="n">
         <v>-2.13557309428383</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>487.1196746826172</v>
+        <v>165.5406951904297</v>
       </c>
       <c r="H23" t="n">
         <v>-89.19804935424524</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>505.6828022003174</v>
+        <v>170.5453157424927</v>
       </c>
       <c r="H24" t="n">
         <v>-37.50292576989972</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>518.2825922966003</v>
+        <v>175.8108139038086</v>
       </c>
       <c r="H25" t="n">
         <v>-23.78953960525217</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>538.607120513916</v>
+        <v>181.5627813339233</v>
       </c>
       <c r="H26" t="n">
         <v>-16.71628653125208</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>573.4642148017883</v>
+        <v>191.1166906356812</v>
       </c>
       <c r="H27" t="n">
         <v>-11.05023521660459</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>634.351921081543</v>
+        <v>243.4165954589843</v>
       </c>
       <c r="H28" t="n">
         <v>-6.422405966346402</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1847.34845161438</v>
+        <v>522.9711532592773</v>
       </c>
       <c r="H29" t="n">
         <v>-2.13557309428383</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>20.94197273254395</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>-89.19804935424524</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.92209672927856</v>
+        <v>11.96813583374023</v>
       </c>
       <c r="H31" t="n">
         <v>-37.50292576989972</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>29.95079755783081</v>
+        <v>14.95957374572754</v>
       </c>
       <c r="H32" t="n">
         <v>-23.78953960525217</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>33.91194343566895</v>
+        <v>16.93236827850342</v>
       </c>
       <c r="H33" t="n">
         <v>-16.71628653125208</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>37.90140151977539</v>
+        <v>17.95476675033569</v>
       </c>
       <c r="H34" t="n">
         <v>-11.05023521660459</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>44.88450288772583</v>
+        <v>22.99374341964721</v>
       </c>
       <c r="H35" t="n">
         <v>-6.422405966346402</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>99.73239898681641</v>
+        <v>66.10465049743652</v>
       </c>
       <c r="H36" t="n">
         <v>-2.13557309428383</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>17.60885715484619</v>
+        <v>17.73297786712646</v>
       </c>
       <c r="H38" t="n">
         <v>-37.50292576989972</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>18.92232894897461</v>
+        <v>18.87995004653931</v>
       </c>
       <c r="H39" t="n">
         <v>-23.78953960525217</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>19.76919174194336</v>
+        <v>19.65034008026123</v>
       </c>
       <c r="H40" t="n">
         <v>-16.71628653125208</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>20.84988355636597</v>
+        <v>20.64216136932373</v>
       </c>
       <c r="H41" t="n">
         <v>-11.05023521660459</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>24.90307092666626</v>
+        <v>24.78373050689697</v>
       </c>
       <c r="H42" t="n">
         <v>-6.422405966346402</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>572828.8283348083</v>
+        <v>3688.81368637085</v>
       </c>
       <c r="H43" t="n">
         <v>-2.13557309428383</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.985954284667969</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>-89.19804935424524</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3.985393047332764</v>
+        <v>2.988338470458984</v>
       </c>
       <c r="H45" t="n">
         <v>-37.50292576989972</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.991067409515381</v>
+        <v>2.993345260620117</v>
       </c>
       <c r="H46" t="n">
         <v>-23.78953960525217</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>4.986763000488281</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="H47" t="n">
         <v>-16.71628653125208</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>5.982458591461182</v>
+        <v>4.950404167175293</v>
       </c>
       <c r="H48" t="n">
         <v>-11.05023521660459</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>7.375419139862049</v>
+        <v>8.33618640899658</v>
       </c>
       <c r="H49" t="n">
         <v>-6.422405966346402</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>404.9632549285889</v>
+        <v>433.4487915039062</v>
       </c>
       <c r="H50" t="n">
         <v>-2.13557309428383</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>4.98199462890625</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>-89.19804935424524</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>5.983829498291016</v>
+        <v>4.986286163330078</v>
       </c>
       <c r="H52" t="n">
         <v>-37.50292576989972</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>7.969141006469727</v>
+        <v>5.984306335449219</v>
       </c>
       <c r="H53" t="n">
         <v>-23.78953960525217</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>8.980274200439453</v>
+        <v>6.984829902648926</v>
       </c>
       <c r="H54" t="n">
         <v>-16.71628653125208</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>11.9519829750061</v>
+        <v>8.975028991699219</v>
       </c>
       <c r="H55" t="n">
         <v>-11.05023521660459</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>16.94204807281494</v>
+        <v>12.99382448196411</v>
       </c>
       <c r="H56" t="n">
         <v>-6.422405966346402</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>119.621753692627</v>
+        <v>71.2742805480957</v>
       </c>
       <c r="H57" t="n">
         <v>-2.13557309428383</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>78.78518104553223</v>
+        <v>21.68107032775879</v>
       </c>
       <c r="H58" t="n">
         <v>-89.19804935424524</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>83.77833366394043</v>
+        <v>34.90638732910156</v>
       </c>
       <c r="H59" t="n">
         <v>-37.50292576989972</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>87.18377351760864</v>
+        <v>35.90488433837891</v>
       </c>
       <c r="H60" t="n">
         <v>-23.78953960525217</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>90.71969985961914</v>
+        <v>36.90409660339355</v>
       </c>
       <c r="H61" t="n">
         <v>-16.71628653125208</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>96.70752286911011</v>
+        <v>38.89632225036621</v>
       </c>
       <c r="H62" t="n">
         <v>-11.05023521660459</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>112.1061205863952</v>
+        <v>50.44769048690796</v>
       </c>
       <c r="H63" t="n">
         <v>-6.422405966346402</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>277.6637077331543</v>
+        <v>138.176441192627</v>
       </c>
       <c r="H64" t="n">
         <v>-2.13557309428383</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>4.952192306518555</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>-89.19804935424524</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>4.993867874145508</v>
+        <v>3.950595855712891</v>
       </c>
       <c r="H66" t="n">
         <v>-37.50292576989972</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>5.988359451293945</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="H67" t="n">
         <v>-23.78953960525217</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>7.007360458374023</v>
+        <v>4.526853561401367</v>
       </c>
       <c r="H68" t="n">
         <v>-16.71628653125208</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>8.013367652893066</v>
+        <v>5.023300647735596</v>
       </c>
       <c r="H69" t="n">
         <v>-11.05023521660459</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>10.92990636825562</v>
+        <v>7.207477092742911</v>
       </c>
       <c r="H70" t="n">
         <v>-6.422405966346402</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>50.13394355773926</v>
+        <v>29.69241142272949</v>
       </c>
       <c r="H71" t="n">
         <v>-2.13557309428383</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2.87175178527832</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>-89.19804935424524</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2.994060516357422</v>
+        <v>1.994848251342773</v>
       </c>
       <c r="H73" t="n">
         <v>-37.50292576989972</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>3.989458084106445</v>
+        <v>2.991378307342529</v>
       </c>
       <c r="H74" t="n">
         <v>-23.78953960525217</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>4.984617233276367</v>
+        <v>2.993345260620117</v>
       </c>
       <c r="H75" t="n">
         <v>-16.71628653125208</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>5.962908267974854</v>
+        <v>3.988027572631836</v>
       </c>
       <c r="H76" t="n">
         <v>-11.05023521660459</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>7.954263687133788</v>
+        <v>6.02031946182251</v>
       </c>
       <c r="H77" t="n">
         <v>-6.422405966346402</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>54.70013618469238</v>
+        <v>31.94737434387207</v>
       </c>
       <c r="H78" t="n">
         <v>-2.13557309428383</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>18.95022392272949</v>
+        <v>18.9509391784668</v>
       </c>
       <c r="H80" t="n">
         <v>-37.50292576989972</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>21.29268646240234</v>
+        <v>21.59613370895386</v>
       </c>
       <c r="H81" t="n">
         <v>-23.78953960525217</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>23.93293380737305</v>
+        <v>22.97186851501465</v>
       </c>
       <c r="H82" t="n">
         <v>-16.71628653125208</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>26.86524391174316</v>
+        <v>25.93183517456055</v>
       </c>
       <c r="H83" t="n">
         <v>-11.05023521660459</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>33.90957117080688</v>
+        <v>33.88441801071167</v>
       </c>
       <c r="H84" t="n">
         <v>-6.422405966346402</v>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>2326.582908630371</v>
+        <v>285359.3547344208</v>
       </c>
       <c r="H85" t="n">
         <v>-2.13557309428383</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>21.69430255889893</v>
+        <v>21.91009521484375</v>
       </c>
       <c r="H87" t="n">
         <v>-37.50292576989972</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>23.12523126602173</v>
+        <v>23.58251810073853</v>
       </c>
       <c r="H88" t="n">
         <v>-23.78953960525217</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>24.51837062835693</v>
+        <v>24.72233772277832</v>
       </c>
       <c r="H89" t="n">
         <v>-16.71628653125208</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>25.92998743057251</v>
+        <v>26.02636814117432</v>
       </c>
       <c r="H90" t="n">
         <v>-11.05023521660459</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>29.36555147171021</v>
+        <v>30.95662593841552</v>
       </c>
       <c r="H91" t="n">
         <v>-6.422405966346402</v>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>6242.477416992188</v>
+        <v>20832.29231834412</v>
       </c>
       <c r="H92" t="n">
         <v>-2.13557309428383</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>15.92326164245605</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>-89.19804935424524</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>16.98946952819824</v>
+        <v>8.976459503173828</v>
       </c>
       <c r="H94" t="n">
         <v>-37.50292576989972</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>18.94235610961914</v>
+        <v>9.973526000976562</v>
       </c>
       <c r="H95" t="n">
         <v>-23.78953960525217</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>19.94228363037109</v>
+        <v>10.96987724304199</v>
       </c>
       <c r="H96" t="n">
         <v>-16.71628653125208</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>20.97207307815552</v>
+        <v>11.96384429931641</v>
       </c>
       <c r="H97" t="n">
         <v>-11.05023521660459</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>24.93294477462769</v>
+        <v>15.76806306838989</v>
       </c>
       <c r="H98" t="n">
         <v>-6.422405966346402</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>61.66219711303711</v>
+        <v>42.96016693115234</v>
       </c>
       <c r="H99" t="n">
         <v>-2.13557309428383</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>47.17350006103516</v>
+        <v>41.28718376159668</v>
       </c>
       <c r="H100" t="n">
         <v>-89.19804935424524</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>50.7083535194397</v>
+        <v>49.22808408737183</v>
       </c>
       <c r="H101" t="n">
         <v>-37.50292576989972</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>53.74252796173096</v>
+        <v>51.64849758148193</v>
       </c>
       <c r="H102" t="n">
         <v>-23.78953960525217</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>56.81681632995605</v>
+        <v>53.85434627532959</v>
       </c>
       <c r="H103" t="n">
         <v>-16.71628653125208</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>61.65915727615356</v>
+        <v>57.41870403289795</v>
       </c>
       <c r="H104" t="n">
         <v>-11.05023521660459</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>74.846076965332</v>
+        <v>69.33439970016479</v>
       </c>
       <c r="H105" t="n">
         <v>-6.422405966346402</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>551.5298843383789</v>
+        <v>570.9958076477051</v>
       </c>
       <c r="H106" t="n">
         <v>-2.13557309428383</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>585.721492767334</v>
+        <v>329.4777870178223</v>
       </c>
       <c r="H107" t="n">
         <v>-89.19804935424524</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>601.8897414207458</v>
+        <v>343.1185245513916</v>
       </c>
       <c r="H108" t="n">
         <v>-37.50292576989972</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>618.5138821601868</v>
+        <v>350.0787019729614</v>
       </c>
       <c r="H109" t="n">
         <v>-23.78953960525217</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>636.0411643981934</v>
+        <v>358.2924604415894</v>
       </c>
       <c r="H110" t="n">
         <v>-16.71628653125208</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>675.6636500358582</v>
+        <v>379.7038197517395</v>
       </c>
       <c r="H111" t="n">
         <v>-11.05023521660459</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>752.0288348197937</v>
+        <v>472.1839547157288</v>
       </c>
       <c r="H112" t="n">
         <v>-6.422405966346402</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1344.005346298218</v>
+        <v>916.4977073669434</v>
       </c>
       <c r="H113" t="n">
         <v>-2.13557309428383</v>
